--- a/NhryService/src/main/webapp/report/template/YearOrderTemplate.xlsx
+++ b/NhryService/src/main/webapp/report/template/YearOrderTemplate.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>计划开始配送日期</t>
   </si>
@@ -101,6 +101,13 @@
   <si>
     <t>年卡、半年卡、季卡
 10、20、30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装箱状态
+10 已装箱
+20 未安装
+30 无需安装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -542,13 +549,13 @@
     <col min="1" max="1" width="27" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.75" style="1" customWidth="1"/>
-    <col min="5" max="6" width="24.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.25" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="4" max="5" width="16.75" style="1" customWidth="1"/>
+    <col min="6" max="7" width="24.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="42.75">
+    <row r="1" spans="1:8" ht="57">
       <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
@@ -559,15 +566,18 @@
         <v>7</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
     </row>
